--- a/datasets/boston.xlsx
+++ b/datasets/boston.xlsx
@@ -438,7 +438,7 @@
   <dimension ref="A1:N507"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
